--- a/output1.xlsx
+++ b/output1.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Characteristics</t>
-  </si>
-  <si>
-    <t>Values</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Contrast</t>
   </si>
@@ -38,9 +32,6 @@
   </si>
   <si>
     <t>ASM</t>
-  </si>
-  <si>
-    <t>1.3934610193428871</t>
   </si>
 </sst>
 </file>
@@ -398,83 +389,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+      <c r="B2">
+        <v>1.393461019342887</v>
+      </c>
+      <c r="C2">
         <v>0.8412435935086056</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="D2">
         <v>0.6328288285094572</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="E2">
         <v>0.333453226108575</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
+      <c r="F2">
         <v>0.2386352009269915</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
+      <c r="G2">
         <v>0.1111983240169811</v>
       </c>
     </row>

--- a/output1.xlsx
+++ b/output1.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.393461019342887</v>
+        <v>19.40715540151546</v>
       </c>
       <c r="C2">
-        <v>0.8412435935086056</v>
+        <v>1.617262950126288</v>
       </c>
       <c r="D2">
-        <v>0.6328288285094572</v>
+        <v>0.8661575489550658</v>
       </c>
       <c r="E2">
-        <v>0.333453226108575</v>
+        <v>0.6425557629246178</v>
       </c>
       <c r="F2">
-        <v>0.2386352009269915</v>
+        <v>0.7136427902702416</v>
       </c>
       <c r="G2">
-        <v>0.1111983240169811</v>
+        <v>0.4129322794408531</v>
       </c>
     </row>
   </sheetData>
